--- a/STM32F429/Docs/通信协议.xlsx
+++ b/STM32F429/Docs/通信协议.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25167cc0c48f5027/文档/生产/物联网项目/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/25167cc0c48f5027/文档/生产/物联网项目/F429_V1/STM32F429/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="11_F25DC773A252ABDACC104814815E7C5E5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25F17BC-0C78-48D6-93DD-B873A22155AE}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="11_F25DC773A252ABDACC104814815E7C5E5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0C98153-3CA4-4C9C-AA0A-0C0B5821701D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="帧格式" sheetId="1" r:id="rId1"/>
-    <sheet name="无线通信模式位" sheetId="2" r:id="rId2"/>
-    <sheet name="STM32_GPIO" sheetId="3" r:id="rId3"/>
+    <sheet name="STM32_IO" sheetId="3" r:id="rId1"/>
+    <sheet name="ESP32_IO" sheetId="4" r:id="rId2"/>
+    <sheet name="帧格式" sheetId="1" r:id="rId3"/>
+    <sheet name="无线通信模式位" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="163">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +125,6 @@
   <si>
     <t>功能位选择间隔时间，默认500ms</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>野火 5 / 7寸电容屏模块</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>野火F429开发板V1</t>
@@ -530,8 +527,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>t</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ESP32通信串口</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10/USART1_RX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA11/USART1_TX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>野火7寸电容屏模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESP32-WROOM32-U</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO4/UART_TX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO5/UART_RX</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB模块</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色灯珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色灯珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色灯珠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH11</t>
+  </si>
+  <si>
+    <t>PH12</t>
   </si>
 </sst>
 </file>
@@ -936,6 +995,12 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -949,12 +1014,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,6 +1052,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1257,6 +1320,987 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127F034-4291-4F78-A355-293077B1700E}">
+  <dimension ref="A1:E62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14">
+        <v>38</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>2</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18">
+        <v>36</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18">
+        <v>35</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>5</v>
+      </c>
+      <c r="B7" s="18">
+        <v>34</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="39"/>
+      <c r="E7" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>6</v>
+      </c>
+      <c r="B8" s="18">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="18">
+        <v>32</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="39"/>
+      <c r="E9" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18">
+        <v>31</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="39"/>
+      <c r="E10" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>9</v>
+      </c>
+      <c r="B11" s="18">
+        <v>30</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="39"/>
+      <c r="E11" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
+        <v>29</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18">
+        <v>28</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="39"/>
+      <c r="E13" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>12</v>
+      </c>
+      <c r="B14" s="18">
+        <v>27</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>13</v>
+      </c>
+      <c r="B15" s="18">
+        <v>26</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="41"/>
+      <c r="E15" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18">
+        <v>25</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="41"/>
+      <c r="E16" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
+        <v>15</v>
+      </c>
+      <c r="B17" s="18">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18">
+        <v>23</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>17</v>
+      </c>
+      <c r="B19" s="18">
+        <v>22</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>18</v>
+      </c>
+      <c r="B20" s="18">
+        <v>21</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="41"/>
+      <c r="E20" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>19</v>
+      </c>
+      <c r="B21" s="18">
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="42"/>
+      <c r="E21" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>20</v>
+      </c>
+      <c r="B22" s="18">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>21</v>
+      </c>
+      <c r="B23" s="18">
+        <v>18</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>22</v>
+      </c>
+      <c r="B24" s="18">
+        <v>17</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18">
+        <v>16</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>24</v>
+      </c>
+      <c r="B26" s="18">
+        <v>15</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>25</v>
+      </c>
+      <c r="B27" s="18">
+        <v>14</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>26</v>
+      </c>
+      <c r="B28" s="18">
+        <v>13</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A29" s="18">
+        <v>27</v>
+      </c>
+      <c r="B29" s="18">
+        <v>12</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="42"/>
+      <c r="E29" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A30" s="18">
+        <v>28</v>
+      </c>
+      <c r="B30" s="18">
+        <v>11</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A31" s="18">
+        <v>29</v>
+      </c>
+      <c r="B31" s="18">
+        <v>10</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A32" s="18">
+        <v>30</v>
+      </c>
+      <c r="B32" s="18">
+        <v>9</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A33" s="18">
+        <v>31</v>
+      </c>
+      <c r="B33" s="18">
+        <v>8</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A34" s="18">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18">
+        <v>7</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A35" s="18">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18">
+        <v>6</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A36" s="18">
+        <v>34</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A37" s="20">
+        <v>35</v>
+      </c>
+      <c r="B37" s="20">
+        <v>3</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A38" s="20">
+        <v>36</v>
+      </c>
+      <c r="B38" s="20">
+        <v>4</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A39" s="20">
+        <v>37</v>
+      </c>
+      <c r="B39" s="20">
+        <v>2</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A40" s="20">
+        <v>38</v>
+      </c>
+      <c r="B40" s="20">
+        <v>1</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A41" s="9"/>
+      <c r="B41" s="20">
+        <v>37</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="20">
+        <v>40</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A44" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A48" s="20"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="E48" s="21" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" s="37"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D52" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A55" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A57" s="20"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="37"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A62" s="20"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="D6:D13"/>
+    <mergeCell ref="D14:D21"/>
+    <mergeCell ref="D22:D29"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A44:D44"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE7BA78-2C7F-4948-926D-1D012D1E27AB}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N15"/>
   <sheetViews>
@@ -1264,66 +2308,66 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="6" customWidth="1"/>
-    <col min="3" max="4" width="6.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="13" width="6.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="6" customWidth="1"/>
+    <col min="3" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="13" width="6.109375" style="6" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="34"/>
+      <c r="D2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="M2" s="32"/>
+      <c r="M2" s="34"/>
       <c r="N2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -1367,19 +2411,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D4" s="8"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+    </row>
+    <row r="6" spans="1:14" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -1393,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1407,104 +2451,104 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:14" ht="62.4" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:14" ht="57" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+    </row>
+    <row r="14" spans="1:14" ht="46.8" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="C14" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="31.8" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F10" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="B15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-    </row>
-    <row r="14" spans="1:14" ht="42.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14" s="27" t="s">
+      <c r="E15" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>131</v>
-      </c>
       <c r="F15" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +2570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188B8E95-848F-4EE2-AA59-8E38FB6FEFFC}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1534,15 +2578,15 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +2596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
@@ -1564,7 +2608,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>17</v>
       </c>
@@ -1585,791 +2629,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127F034-4291-4F78-A355-293077B1700E}">
-  <dimension ref="A1:E55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14">
-        <v>38</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="18">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18">
-        <v>36</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18">
-        <v>4</v>
-      </c>
-      <c r="B6" s="18">
-        <v>35</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="18">
-        <v>5</v>
-      </c>
-      <c r="B7" s="18">
-        <v>34</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="18">
-        <v>6</v>
-      </c>
-      <c r="B8" s="18">
-        <v>33</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="18">
-        <v>7</v>
-      </c>
-      <c r="B9" s="18">
-        <v>32</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
-        <v>8</v>
-      </c>
-      <c r="B10" s="18">
-        <v>31</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
-        <v>10</v>
-      </c>
-      <c r="B12" s="18">
-        <v>29</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="18">
-        <v>11</v>
-      </c>
-      <c r="B13" s="18">
-        <v>28</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="18">
-        <v>12</v>
-      </c>
-      <c r="B14" s="18">
-        <v>27</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="18">
-        <v>13</v>
-      </c>
-      <c r="B15" s="18">
-        <v>26</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
-        <v>14</v>
-      </c>
-      <c r="B16" s="18">
-        <v>25</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="41"/>
-      <c r="E16" s="19" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
-        <v>15</v>
-      </c>
-      <c r="B17" s="18">
-        <v>24</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
-        <v>16</v>
-      </c>
-      <c r="B18" s="18">
-        <v>23</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
-        <v>17</v>
-      </c>
-      <c r="B19" s="18">
-        <v>22</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18">
-        <v>21</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
-        <v>19</v>
-      </c>
-      <c r="B21" s="18">
-        <v>20</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="18">
-        <v>20</v>
-      </c>
-      <c r="B22" s="18">
-        <v>19</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="18">
-        <v>21</v>
-      </c>
-      <c r="B23" s="18">
-        <v>18</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="18">
-        <v>22</v>
-      </c>
-      <c r="B24" s="18">
-        <v>17</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="18">
-        <v>23</v>
-      </c>
-      <c r="B25" s="18">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18">
-        <v>24</v>
-      </c>
-      <c r="B26" s="18">
-        <v>15</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="18">
-        <v>25</v>
-      </c>
-      <c r="B27" s="18">
-        <v>14</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="18">
-        <v>26</v>
-      </c>
-      <c r="B28" s="18">
-        <v>13</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="18">
-        <v>27</v>
-      </c>
-      <c r="B29" s="18">
-        <v>12</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="18">
-        <v>28</v>
-      </c>
-      <c r="B30" s="18">
-        <v>11</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="18">
-        <v>29</v>
-      </c>
-      <c r="B31" s="18">
-        <v>10</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="18">
-        <v>30</v>
-      </c>
-      <c r="B32" s="18">
-        <v>9</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="18">
-        <v>31</v>
-      </c>
-      <c r="B33" s="18">
-        <v>8</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="18">
-        <v>32</v>
-      </c>
-      <c r="B34" s="18">
-        <v>7</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="18">
-        <v>33</v>
-      </c>
-      <c r="B35" s="18">
-        <v>6</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="18">
-        <v>34</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="20">
-        <v>35</v>
-      </c>
-      <c r="B37" s="20">
-        <v>3</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="20">
-        <v>36</v>
-      </c>
-      <c r="B38" s="20">
-        <v>4</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="E38" s="21" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="20">
-        <v>37</v>
-      </c>
-      <c r="B39" s="20">
-        <v>2</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="20">
-        <v>38</v>
-      </c>
-      <c r="B40" s="20">
-        <v>1</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="9"/>
-      <c r="B41" s="20">
-        <v>37</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="9"/>
-      <c r="B42" s="20">
-        <v>40</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="D6:D13"/>
-    <mergeCell ref="D14:D21"/>
-    <mergeCell ref="D22:D29"/>
-    <mergeCell ref="A44:D44"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>